--- a/documentation-generator/vocab_csv/dpv-pd.xlsx
+++ b/documentation-generator/vocab_csv/dpv-pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="777">
   <si>
     <t>Term</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Definition</t>
   </si>
   <si>
     <t>ParentTerm</t>
@@ -41,7 +41,7 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>Usage</t>
   </si>
   <si>
     <t>Source</t>
@@ -303,9 +303,6 @@
     <t>(GDPR Art.9-1, https://eur-lex.europa.eu/eli/reg/2016/679/art_9/par_1/oj)</t>
   </si>
   <si>
-    <t>modified</t>
-  </si>
-  <si>
     <t>SyntheticData</t>
   </si>
   <si>
@@ -2394,97 +2391,109 @@
     <t>Information about biometrics and biometric characteristics.</t>
   </si>
   <si>
+    <t>dpv-pd:Identifying,dpv:SpecialCategoryPersonalData</t>
+  </si>
+  <si>
+    <t>EthnicOrigin</t>
+  </si>
+  <si>
+    <t>Ethnic Origin</t>
+  </si>
+  <si>
+    <t>Information about ethnic origin</t>
+  </si>
+  <si>
+    <t>dpv-pd:Ethnicity,dpv:SpecialCategoryPersonalData</t>
+  </si>
+  <si>
+    <t>MedicalHealth</t>
+  </si>
+  <si>
+    <t>Medical Health</t>
+  </si>
+  <si>
+    <t>Information about health, medical conditions or health care</t>
+  </si>
+  <si>
+    <t>dpv-pd:External,dpv:SpecialCategoryPersonalData</t>
+  </si>
+  <si>
+    <t>PhilosophicalBelief</t>
+  </si>
+  <si>
+    <t>Philosophical Belief</t>
+  </si>
+  <si>
+    <t>Information about philosophical beliefs.</t>
+  </si>
+  <si>
+    <t>dpv-pd:KnowledgeBelief,dpv:SpecialCategoryPersonalData</t>
+  </si>
+  <si>
+    <t>PoliticalAffiliation</t>
+  </si>
+  <si>
+    <t>Political Affiliation</t>
+  </si>
+  <si>
+    <t>Information about political affiliation and history</t>
+  </si>
+  <si>
+    <t>dpv-pd:PublicLife,dpv:SpecialCategoryPersonalData</t>
+  </si>
+  <si>
+    <t>svd:Political</t>
+  </si>
+  <si>
+    <t>PoliticalOpinion</t>
+  </si>
+  <si>
+    <t>Political Opinion</t>
+  </si>
+  <si>
+    <t>Information about opinions regarding politics and political topics</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Information about race or racial history.</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Information about religion, religious inclinations, and religious history.</t>
+  </si>
+  <si>
+    <t>ReligiousBelief</t>
+  </si>
+  <si>
+    <t>Religious Belief</t>
+  </si>
+  <si>
+    <t>Information about religion and religious beliefs.</t>
+  </si>
+  <si>
+    <t>Sexual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information about sexuality and sexual history </t>
+  </si>
+  <si>
+    <t>TradeUnionMembership</t>
+  </si>
+  <si>
+    <t>Trade Union Membership</t>
+  </si>
+  <si>
+    <t>Information about trade union memberships and related topics</t>
+  </si>
+  <si>
+    <t>dpv-pd:GroupMembership,dpv:SpecialCategoryPersonalData</t>
+  </si>
+  <si>
     <t>dpv:SpecialCategoryPersonalData</t>
-  </si>
-  <si>
-    <t>EthnicOrigin</t>
-  </si>
-  <si>
-    <t>Ethnic Origin</t>
-  </si>
-  <si>
-    <t>Information about ethnic origin</t>
-  </si>
-  <si>
-    <t>dpv-pd:Ethnicity</t>
-  </si>
-  <si>
-    <t>MedicalHealth</t>
-  </si>
-  <si>
-    <t>Medical Health</t>
-  </si>
-  <si>
-    <t>Information about health, medical conditions or health care</t>
-  </si>
-  <si>
-    <t>PhilosophicalBelief</t>
-  </si>
-  <si>
-    <t>Philosophical Belief</t>
-  </si>
-  <si>
-    <t>Information about philosophical beliefs.</t>
-  </si>
-  <si>
-    <t>PoliticalAffiliation</t>
-  </si>
-  <si>
-    <t>Political Affiliation</t>
-  </si>
-  <si>
-    <t>Information about political affiliation and history</t>
-  </si>
-  <si>
-    <t>svd:Political</t>
-  </si>
-  <si>
-    <t>PoliticalOpinion</t>
-  </si>
-  <si>
-    <t>Political Opinion</t>
-  </si>
-  <si>
-    <t>Information about opinions regarding politics and political topics</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Information about race or racial history.</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Information about religion, religious inclinations, and religious history.</t>
-  </si>
-  <si>
-    <t>ReligiousBelief</t>
-  </si>
-  <si>
-    <t>Religious Belief</t>
-  </si>
-  <si>
-    <t>Information about religion and religious beliefs.</t>
-  </si>
-  <si>
-    <t>Sexual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information about sexuality and sexual history </t>
-  </si>
-  <si>
-    <t>TradeUnionMembership</t>
-  </si>
-  <si>
-    <t>Trade Union Membership</t>
-  </si>
-  <si>
-    <t>Information about trade union memberships and related topics</t>
-  </si>
-  <si>
-    <t>dpv-pd:GroupMembership</t>
   </si>
 </sst>
 </file>
@@ -3831,7 +3840,7 @@
         <v>44580.0</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>47</v>
@@ -3855,13 +3864,13 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>60</v>
@@ -3874,7 +3883,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="13">
         <v>44791.0</v>
@@ -3903,13 +3912,13 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>60</v>
@@ -3949,13 +3958,13 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>60</v>
@@ -3995,13 +4004,13 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>60</v>
@@ -4041,13 +4050,13 @@
     </row>
     <row r="19">
       <c r="A19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>103</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>60</v>
@@ -4060,7 +4069,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -4085,13 +4094,13 @@
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>60</v>
@@ -4104,7 +4113,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -4129,13 +4138,13 @@
     </row>
     <row r="21">
       <c r="A21" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>60</v>
@@ -4148,7 +4157,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -4173,10 +4182,10 @@
     </row>
     <row r="22">
       <c r="A22" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="10" t="s">
@@ -4213,14 +4222,14 @@
     </row>
     <row r="23">
       <c r="A23" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>19</v>
@@ -4230,7 +4239,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
@@ -4255,13 +4264,13 @@
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>60</v>
@@ -4274,7 +4283,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
@@ -4299,13 +4308,13 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>34</v>
@@ -4341,11 +4350,11 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="32"/>
       <c r="C26" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>34</v>
@@ -4381,11 +4390,11 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="32"/>
       <c r="C27" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>34</v>
@@ -7073,13 +7082,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7111,13 +7120,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>39</v>
@@ -7126,7 +7135,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7161,13 +7170,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>39</v>
@@ -7176,7 +7185,7 @@
         <v>60</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -10238,26 +10247,24 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -10270,7 +10277,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -10288,28 +10295,26 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -10322,7 +10327,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -10340,26 +10345,24 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -10372,7 +10375,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -10390,19 +10393,17 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -10420,7 +10421,7 @@
         <v>30</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -10438,26 +10439,24 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" s="13">
         <v>43620.0</v>
@@ -10470,7 +10469,7 @@
         <v>47</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -10488,19 +10487,17 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -10518,7 +10515,7 @@
         <v>30</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -10536,26 +10533,24 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -10568,7 +10563,7 @@
         <v>47</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -10586,26 +10581,24 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -10618,7 +10611,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -14850,16 +14843,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>34</v>
@@ -14869,7 +14862,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -14882,7 +14875,7 @@
         <v>47</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -14900,16 +14893,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>34</v>
@@ -14919,7 +14912,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -14932,7 +14925,7 @@
         <v>47</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -14950,16 +14943,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>34</v>
@@ -14969,7 +14962,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -14982,7 +14975,7 @@
         <v>47</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -15000,16 +14993,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>34</v>
@@ -15019,7 +15012,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K5" s="13">
         <v>43620.0</v>
@@ -15032,7 +15025,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -15050,16 +15043,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>34</v>
@@ -15080,7 +15073,7 @@
         <v>30</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -15098,16 +15091,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>34</v>
@@ -15128,7 +15121,7 @@
         <v>30</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -15146,16 +15139,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>34</v>
@@ -15165,7 +15158,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -15178,7 +15171,7 @@
         <v>47</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -15196,16 +15189,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>182</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>34</v>
@@ -15215,7 +15208,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -15228,7 +15221,7 @@
         <v>47</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15246,16 +15239,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="39" t="s">
+      <c r="D10" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>34</v>
@@ -15265,7 +15258,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K10" s="13">
         <v>43620.0</v>
@@ -15278,7 +15271,7 @@
         <v>47</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -15296,16 +15289,16 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>34</v>
@@ -15315,7 +15308,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K11" s="13">
         <v>43620.0</v>
@@ -15328,7 +15321,7 @@
         <v>47</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -15346,16 +15339,16 @@
     </row>
     <row r="12">
       <c r="A12" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="C12" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>191</v>
-      </c>
       <c r="D12" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>34</v>
@@ -15365,7 +15358,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="41"/>
       <c r="J12" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K12" s="42">
         <v>44139.0</v>
@@ -15378,7 +15371,7 @@
         <v>66</v>
       </c>
       <c r="O12" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P12" s="41"/>
       <c r="Q12" s="41"/>
@@ -15396,16 +15389,16 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>34</v>
@@ -15415,7 +15408,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K13" s="13">
         <v>43620.0</v>
@@ -15428,7 +15421,7 @@
         <v>47</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -15446,28 +15439,28 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K14" s="13">
         <v>43620.0</v>
@@ -15480,7 +15473,7 @@
         <v>47</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -15498,16 +15491,16 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="D15" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>34</v>
@@ -15528,7 +15521,7 @@
         <v>30</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -15546,16 +15539,16 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>34</v>
@@ -15576,7 +15569,7 @@
         <v>30</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -15594,16 +15587,16 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>34</v>
@@ -15613,7 +15606,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K17" s="13">
         <v>43620.0</v>
@@ -15626,7 +15619,7 @@
         <v>47</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -15644,16 +15637,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>34</v>
@@ -15663,7 +15656,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K18" s="13">
         <v>43620.0</v>
@@ -15676,7 +15669,7 @@
         <v>47</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -15694,16 +15687,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>34</v>
@@ -15724,7 +15717,7 @@
         <v>30</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -15742,28 +15735,28 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>222</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K20" s="13">
         <v>43620.0</v>
@@ -15776,7 +15769,7 @@
         <v>47</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -15794,16 +15787,16 @@
     </row>
     <row r="21">
       <c r="A21" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="C21" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>226</v>
-      </c>
       <c r="D21" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>34</v>
@@ -15813,7 +15806,7 @@
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
       <c r="J21" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K21" s="42">
         <v>44139.0</v>
@@ -15826,7 +15819,7 @@
         <v>66</v>
       </c>
       <c r="O21" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -15844,16 +15837,16 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="D22" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>34</v>
@@ -15863,7 +15856,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K22" s="13">
         <v>43620.0</v>
@@ -15876,7 +15869,7 @@
         <v>47</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -15894,16 +15887,16 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>34</v>
@@ -15913,7 +15906,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K23" s="13">
         <v>43620.0</v>
@@ -15926,7 +15919,7 @@
         <v>47</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -15944,16 +15937,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>34</v>
@@ -15963,7 +15956,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K24" s="13">
         <v>43620.0</v>
@@ -15976,7 +15969,7 @@
         <v>47</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -15994,16 +15987,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>34</v>
@@ -16013,7 +16006,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K25" s="13">
         <v>43620.0</v>
@@ -16026,7 +16019,7 @@
         <v>47</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -16044,28 +16037,28 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="D26" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K26" s="13">
         <v>43620.0</v>
@@ -16078,7 +16071,7 @@
         <v>47</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -16096,16 +16089,16 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>34</v>
@@ -16115,7 +16108,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K27" s="13">
         <v>43620.0</v>
@@ -16128,7 +16121,7 @@
         <v>47</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -16146,28 +16139,28 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K28" s="13">
         <v>43620.0</v>
@@ -16180,7 +16173,7 @@
         <v>47</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -16198,16 +16191,16 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>252</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>34</v>
@@ -16217,7 +16210,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="10"/>
       <c r="J29" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K29" s="13">
         <v>43620.0</v>
@@ -16230,7 +16223,7 @@
         <v>47</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -16248,16 +16241,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>34</v>
@@ -16267,7 +16260,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K30" s="13">
         <v>43620.0</v>
@@ -16280,7 +16273,7 @@
         <v>47</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -16298,16 +16291,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="C31" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="D31" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>34</v>
@@ -16317,7 +16310,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K31" s="13">
         <v>43620.0</v>
@@ -16330,7 +16323,7 @@
         <v>47</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -16348,16 +16341,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="C32" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>34</v>
@@ -16367,7 +16360,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K32" s="13">
         <v>43620.0</v>
@@ -16380,7 +16373,7 @@
         <v>47</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -16398,16 +16391,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>266</v>
-      </c>
       <c r="D33" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>34</v>
@@ -16417,7 +16410,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K33" s="13">
         <v>43620.0</v>
@@ -16430,7 +16423,7 @@
         <v>47</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -16448,16 +16441,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="C34" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="D34" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>270</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>34</v>
@@ -16467,7 +16460,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K34" s="13">
         <v>43620.0</v>
@@ -16480,7 +16473,7 @@
         <v>47</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -16498,16 +16491,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="C35" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>273</v>
-      </c>
       <c r="D35" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>34</v>
@@ -16517,7 +16510,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K35" s="13">
         <v>43620.0</v>
@@ -16530,7 +16523,7 @@
         <v>47</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -16548,16 +16541,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="C36" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>276</v>
-      </c>
       <c r="D36" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>34</v>
@@ -16567,7 +16560,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K36" s="13">
         <v>43620.0</v>
@@ -16580,7 +16573,7 @@
         <v>47</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -16598,28 +16591,28 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="D37" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K37" s="13">
         <v>43620.0</v>
@@ -16632,7 +16625,7 @@
         <v>47</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -16650,16 +16643,16 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="C38" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>34</v>
@@ -16669,7 +16662,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K38" s="13">
         <v>43620.0</v>
@@ -16682,7 +16675,7 @@
         <v>47</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -16700,16 +16693,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="C39" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>286</v>
-      </c>
       <c r="D39" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>34</v>
@@ -16719,7 +16712,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K39" s="13">
         <v>43620.0</v>
@@ -16732,7 +16725,7 @@
         <v>47</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -16750,16 +16743,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>289</v>
-      </c>
       <c r="D40" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>34</v>
@@ -16796,16 +16789,16 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="C41" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>292</v>
-      </c>
       <c r="D41" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>34</v>
@@ -16815,7 +16808,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K41" s="13">
         <v>43620.0</v>
@@ -16828,7 +16821,7 @@
         <v>47</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -16846,16 +16839,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>34</v>
@@ -16876,7 +16869,7 @@
         <v>30</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -16894,16 +16887,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>298</v>
-      </c>
       <c r="D43" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>34</v>
@@ -16913,7 +16906,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K43" s="13">
         <v>43620.0</v>
@@ -16926,7 +16919,7 @@
         <v>47</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -16944,16 +16937,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>300</v>
-      </c>
       <c r="D44" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>34</v>
@@ -16963,7 +16956,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K44" s="13">
         <v>43620.0</v>
@@ -16976,7 +16969,7 @@
         <v>47</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -16994,16 +16987,16 @@
     </row>
     <row r="45">
       <c r="A45" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="C45" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="D45" s="43" t="s">
         <v>303</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>304</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>34</v>
@@ -17013,7 +17006,7 @@
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
       <c r="J45" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K45" s="42">
         <v>44139.0</v>
@@ -17023,10 +17016,10 @@
         <v>21</v>
       </c>
       <c r="N45" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O45" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P45" s="41"/>
       <c r="Q45" s="41"/>
@@ -17044,28 +17037,28 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="C46" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>309</v>
-      </c>
       <c r="D46" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K46" s="13">
         <v>43620.0</v>
@@ -17078,7 +17071,7 @@
         <v>47</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
@@ -17096,16 +17089,16 @@
     </row>
     <row r="47">
       <c r="A47" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B47" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="C47" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="C47" s="48" t="s">
-        <v>313</v>
-      </c>
       <c r="D47" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>34</v>
@@ -17115,7 +17108,7 @@
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
       <c r="J47" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K47" s="42">
         <v>44139.0</v>
@@ -17125,10 +17118,10 @@
         <v>21</v>
       </c>
       <c r="N47" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O47" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P47" s="41"/>
       <c r="Q47" s="41"/>
@@ -17146,16 +17139,16 @@
     </row>
     <row r="48">
       <c r="A48" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="B48" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="C48" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="C48" s="48" t="s">
-        <v>318</v>
-      </c>
       <c r="D48" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>34</v>
@@ -17165,7 +17158,7 @@
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
       <c r="J48" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K48" s="42">
         <v>44139.0</v>
@@ -17175,10 +17168,10 @@
         <v>21</v>
       </c>
       <c r="N48" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O48" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P48" s="41"/>
       <c r="Q48" s="41"/>
@@ -17196,16 +17189,16 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>321</v>
-      </c>
       <c r="D49" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>34</v>
@@ -17215,7 +17208,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K49" s="13">
         <v>43620.0</v>
@@ -17228,7 +17221,7 @@
         <v>47</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
@@ -17246,16 +17239,16 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>324</v>
-      </c>
       <c r="D50" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>34</v>
@@ -17276,7 +17269,7 @@
         <v>30</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -17294,16 +17287,16 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>326</v>
-      </c>
       <c r="D51" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>34</v>
@@ -17313,7 +17306,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K51" s="13">
         <v>43620.0</v>
@@ -17326,7 +17319,7 @@
         <v>47</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -17344,16 +17337,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="C52" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>34</v>
@@ -17363,7 +17356,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K52" s="13">
         <v>43620.0</v>
@@ -17376,7 +17369,7 @@
         <v>47</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -17394,16 +17387,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C53" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C53" s="39" t="s">
+      <c r="D53" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>34</v>
@@ -17413,7 +17406,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K53" s="13">
         <v>43620.0</v>
@@ -17426,7 +17419,7 @@
         <v>47</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
@@ -17444,16 +17437,16 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="D54" s="10" t="s">
         <v>335</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>336</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>34</v>
@@ -17463,7 +17456,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K54" s="13">
         <v>43620.0</v>
@@ -17476,7 +17469,7 @@
         <v>47</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -17494,16 +17487,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="C55" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>339</v>
-      </c>
       <c r="D55" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>34</v>
@@ -17513,7 +17506,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K55" s="13">
         <v>43620.0</v>
@@ -17526,7 +17519,7 @@
         <v>47</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
@@ -17544,16 +17537,16 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="C56" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>342</v>
-      </c>
       <c r="D56" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>34</v>
@@ -17563,7 +17556,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K56" s="13">
         <v>43620.0</v>
@@ -17576,7 +17569,7 @@
         <v>47</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -17594,16 +17587,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>344</v>
-      </c>
       <c r="D57" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>34</v>
@@ -17624,7 +17617,7 @@
         <v>30</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -17642,16 +17635,16 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>348</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>34</v>
@@ -17672,7 +17665,7 @@
         <v>30</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -17690,16 +17683,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>351</v>
-      </c>
       <c r="D59" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>34</v>
@@ -17720,7 +17713,7 @@
         <v>30</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -17738,16 +17731,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="C60" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="D60" s="10" t="s">
         <v>354</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>355</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>34</v>
@@ -17757,7 +17750,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K60" s="13">
         <v>43620.0</v>
@@ -17770,7 +17763,7 @@
         <v>47</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -17788,16 +17781,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="D61" s="26" t="s">
         <v>358</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>359</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>34</v>
@@ -17818,7 +17811,7 @@
         <v>30</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -17836,16 +17829,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>362</v>
-      </c>
       <c r="D62" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>34</v>
@@ -17866,7 +17859,7 @@
         <v>30</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -17884,16 +17877,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="C63" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="D63" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>366</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>34</v>
@@ -17903,7 +17896,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K63" s="13">
         <v>43620.0</v>
@@ -17916,7 +17909,7 @@
         <v>47</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -17934,16 +17927,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="C64" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>369</v>
-      </c>
       <c r="D64" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>34</v>
@@ -17953,7 +17946,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K64" s="13">
         <v>43620.0</v>
@@ -17966,7 +17959,7 @@
         <v>47</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -17984,16 +17977,16 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>371</v>
-      </c>
       <c r="D65" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>34</v>
@@ -18003,7 +17996,7 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K65" s="13">
         <v>43620.0</v>
@@ -18016,7 +18009,7 @@
         <v>47</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
@@ -18034,16 +18027,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="D66" s="10" t="s">
         <v>374</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>375</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>34</v>
@@ -18064,7 +18057,7 @@
         <v>30</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -18082,16 +18075,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>377</v>
-      </c>
       <c r="D67" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>34</v>
@@ -18101,7 +18094,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K67" s="13">
         <v>43620.0</v>
@@ -18114,7 +18107,7 @@
         <v>47</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -18132,16 +18125,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="C68" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="D68" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>381</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>34</v>
@@ -18151,7 +18144,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K68" s="13">
         <v>43620.0</v>
@@ -18164,7 +18157,7 @@
         <v>47</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -18182,16 +18175,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="C69" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>384</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>385</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>34</v>
@@ -18201,7 +18194,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K69" s="13">
         <v>43620.0</v>
@@ -18214,7 +18207,7 @@
         <v>47</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
@@ -18232,16 +18225,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="D70" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>34</v>
@@ -18251,7 +18244,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K70" s="13">
         <v>43620.0</v>
@@ -18264,7 +18257,7 @@
         <v>47</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -18282,16 +18275,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="C71" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>392</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>34</v>
@@ -18301,7 +18294,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K71" s="13">
         <v>43620.0</v>
@@ -18314,7 +18307,7 @@
         <v>47</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -18332,16 +18325,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="C72" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>395</v>
-      </c>
       <c r="D72" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>34</v>
@@ -18351,7 +18344,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K72" s="13">
         <v>43620.0</v>
@@ -18364,7 +18357,7 @@
         <v>47</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -18382,16 +18375,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="C73" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>398</v>
-      </c>
       <c r="D73" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>34</v>
@@ -18401,7 +18394,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K73" s="13">
         <v>43620.0</v>
@@ -18414,7 +18407,7 @@
         <v>47</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -18432,16 +18425,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="C74" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>401</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>34</v>
@@ -18451,7 +18444,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K74" s="13">
         <v>43620.0</v>
@@ -18464,7 +18457,7 @@
         <v>47</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -18482,16 +18475,16 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="C75" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="D75" s="10" t="s">
         <v>404</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>405</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>34</v>
@@ -18501,7 +18494,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K75" s="13">
         <v>43620.0</v>
@@ -18514,7 +18507,7 @@
         <v>47</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
@@ -18532,16 +18525,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="C76" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="D76" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>34</v>
@@ -18551,7 +18544,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K76" s="13">
         <v>43620.0</v>
@@ -18564,7 +18557,7 @@
         <v>47</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -18582,16 +18575,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>412</v>
-      </c>
       <c r="D77" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>34</v>
@@ -18612,7 +18605,7 @@
         <v>30</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -18630,16 +18623,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>414</v>
-      </c>
       <c r="D78" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>34</v>
@@ -18649,7 +18642,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K78" s="13">
         <v>43620.0</v>
@@ -18662,7 +18655,7 @@
         <v>47</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -18680,16 +18673,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>416</v>
-      </c>
       <c r="D79" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>34</v>
@@ -18699,7 +18692,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K79" s="13">
         <v>43620.0</v>
@@ -18712,7 +18705,7 @@
         <v>47</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
@@ -18730,16 +18723,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B80" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>418</v>
-      </c>
       <c r="D80" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>34</v>
@@ -18749,7 +18742,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K80" s="13">
         <v>43620.0</v>
@@ -18762,7 +18755,7 @@
         <v>47</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -18780,16 +18773,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="C81" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>421</v>
-      </c>
       <c r="D81" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>34</v>
@@ -18799,7 +18792,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K81" s="13">
         <v>43620.0</v>
@@ -18812,7 +18805,7 @@
         <v>47</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
@@ -18830,16 +18823,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="C82" s="10" t="s">
+      <c r="D82" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>424</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>34</v>
@@ -18860,7 +18853,7 @@
         <v>30</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -18878,16 +18871,16 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="C83" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="C83" s="39" t="s">
+      <c r="D83" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>428</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>34</v>
@@ -18897,7 +18890,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K83" s="13">
         <v>43620.0</v>
@@ -18910,7 +18903,7 @@
         <v>47</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -18928,16 +18921,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B84" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="C84" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>431</v>
-      </c>
       <c r="D84" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>34</v>
@@ -18947,7 +18940,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K84" s="13">
         <v>43620.0</v>
@@ -18960,7 +18953,7 @@
         <v>47</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
@@ -18978,16 +18971,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="C85" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>434</v>
-      </c>
       <c r="D85" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>34</v>
@@ -18997,7 +18990,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K85" s="13">
         <v>43620.0</v>
@@ -19010,7 +19003,7 @@
         <v>47</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -19028,16 +19021,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="C86" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="C86" s="38" t="s">
-        <v>437</v>
-      </c>
       <c r="D86" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>34</v>
@@ -19047,7 +19040,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K86" s="13">
         <v>43620.0</v>
@@ -19060,7 +19053,7 @@
         <v>47</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -19078,28 +19071,28 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C87" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="B87" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="C87" s="39" t="s">
-        <v>439</v>
-      </c>
       <c r="D87" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K87" s="13">
         <v>43620.0</v>
@@ -19112,7 +19105,7 @@
         <v>47</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
@@ -19130,16 +19123,16 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B88" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="C88" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>443</v>
-      </c>
       <c r="D88" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>34</v>
@@ -19149,7 +19142,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K88" s="13">
         <v>43620.0</v>
@@ -19162,7 +19155,7 @@
         <v>47</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
@@ -19180,16 +19173,16 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="C89" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>446</v>
-      </c>
       <c r="D89" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>34</v>
@@ -19199,7 +19192,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K89" s="13">
         <v>43620.0</v>
@@ -19212,7 +19205,7 @@
         <v>47</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
@@ -19230,16 +19223,16 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C90" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="C90" s="38" t="s">
-        <v>448</v>
-      </c>
       <c r="D90" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>34</v>
@@ -19249,7 +19242,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K90" s="13">
         <v>43620.0</v>
@@ -19262,7 +19255,7 @@
         <v>47</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
@@ -19280,16 +19273,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B91" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="C91" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>451</v>
-      </c>
       <c r="D91" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>34</v>
@@ -19299,7 +19292,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K91" s="13">
         <v>43620.0</v>
@@ -19312,7 +19305,7 @@
         <v>47</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -19330,16 +19323,16 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>454</v>
-      </c>
       <c r="D92" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>34</v>
@@ -19360,7 +19353,7 @@
         <v>30</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -19378,16 +19371,16 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>456</v>
-      </c>
       <c r="D93" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>34</v>
@@ -19408,7 +19401,7 @@
         <v>30</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -19426,16 +19419,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B94" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>458</v>
-      </c>
       <c r="D94" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>34</v>
@@ -19445,7 +19438,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K94" s="13">
         <v>43620.0</v>
@@ -19458,7 +19451,7 @@
         <v>47</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -19476,16 +19469,16 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B95" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>460</v>
-      </c>
       <c r="D95" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>34</v>
@@ -19495,7 +19488,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K95" s="13">
         <v>43620.0</v>
@@ -19508,7 +19501,7 @@
         <v>47</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -19526,16 +19519,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="C96" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>463</v>
-      </c>
       <c r="D96" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>34</v>
@@ -19545,7 +19538,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K96" s="13">
         <v>43620.0</v>
@@ -19558,7 +19551,7 @@
         <v>47</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -19576,16 +19569,16 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="C97" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>466</v>
-      </c>
       <c r="D97" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>34</v>
@@ -19595,7 +19588,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K97" s="13">
         <v>43620.0</v>
@@ -19608,7 +19601,7 @@
         <v>47</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
@@ -19626,16 +19619,16 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>468</v>
-      </c>
       <c r="D98" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>34</v>
@@ -19656,7 +19649,7 @@
         <v>30</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -19674,16 +19667,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B99" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>470</v>
-      </c>
       <c r="D99" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>34</v>
@@ -19693,7 +19686,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K99" s="13">
         <v>43620.0</v>
@@ -19706,7 +19699,7 @@
         <v>47</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -19724,16 +19717,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B100" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>472</v>
-      </c>
       <c r="D100" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>34</v>
@@ -19743,7 +19736,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K100" s="13">
         <v>43620.0</v>
@@ -19756,7 +19749,7 @@
         <v>47</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
@@ -19774,16 +19767,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B101" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>474</v>
-      </c>
       <c r="D101" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>34</v>
@@ -19793,7 +19786,7 @@
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
       <c r="J101" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K101" s="13">
         <v>43620.0</v>
@@ -19806,7 +19799,7 @@
         <v>47</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
@@ -19824,16 +19817,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B102" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="C102" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>477</v>
-      </c>
       <c r="D102" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>34</v>
@@ -19843,7 +19836,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K102" s="13">
         <v>43620.0</v>
@@ -19856,7 +19849,7 @@
         <v>47</v>
       </c>
       <c r="O102" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
@@ -19874,16 +19867,16 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B103" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>479</v>
-      </c>
       <c r="D103" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>34</v>
@@ -19893,7 +19886,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K103" s="13">
         <v>43620.0</v>
@@ -19906,7 +19899,7 @@
         <v>47</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -19924,16 +19917,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B104" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="C104" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>482</v>
-      </c>
       <c r="D104" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>34</v>
@@ -19943,7 +19936,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K104" s="13">
         <v>43620.0</v>
@@ -19956,7 +19949,7 @@
         <v>47</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
@@ -19974,16 +19967,16 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B105" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>484</v>
-      </c>
       <c r="D105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>34</v>
@@ -19993,7 +19986,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K105" s="13">
         <v>43620.0</v>
@@ -20002,13 +19995,13 @@
         <v>44671.0</v>
       </c>
       <c r="M105" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N105" s="10" t="s">
         <v>47</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
@@ -20026,16 +20019,16 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B106" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="C106" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="D106" s="10" t="s">
         <v>488</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>489</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>34</v>
@@ -20045,7 +20038,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K106" s="13">
         <v>43620.0</v>
@@ -20058,7 +20051,7 @@
         <v>47</v>
       </c>
       <c r="O106" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
@@ -20076,16 +20069,16 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C107" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="B107" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="C107" s="39" t="s">
-        <v>491</v>
-      </c>
       <c r="D107" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>34</v>
@@ -20095,7 +20088,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K107" s="13">
         <v>43620.0</v>
@@ -20108,7 +20101,7 @@
         <v>47</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
@@ -20126,28 +20119,28 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>494</v>
-      </c>
       <c r="D108" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K108" s="13">
         <v>43620.0</v>
@@ -20160,7 +20153,7 @@
         <v>47</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
@@ -20178,16 +20171,16 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B109" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="C109" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>498</v>
-      </c>
       <c r="D109" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>34</v>
@@ -20197,7 +20190,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K109" s="13">
         <v>43620.0</v>
@@ -20210,7 +20203,7 @@
         <v>47</v>
       </c>
       <c r="O109" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
@@ -20228,28 +20221,28 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B110" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>500</v>
-      </c>
       <c r="D110" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K110" s="13">
         <v>43620.0</v>
@@ -20262,7 +20255,7 @@
         <v>47</v>
       </c>
       <c r="O110" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
@@ -20280,16 +20273,16 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B111" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="C111" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>504</v>
-      </c>
       <c r="D111" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>34</v>
@@ -20299,7 +20292,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K111" s="13">
         <v>43620.0</v>
@@ -20312,7 +20305,7 @@
         <v>47</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
@@ -20330,16 +20323,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B112" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="C112" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>507</v>
-      </c>
       <c r="D112" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>34</v>
@@ -20349,7 +20342,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K112" s="13">
         <v>43620.0</v>
@@ -20362,7 +20355,7 @@
         <v>47</v>
       </c>
       <c r="O112" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
@@ -20380,16 +20373,16 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B113" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>509</v>
-      </c>
       <c r="D113" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>34</v>
@@ -20399,7 +20392,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K113" s="13">
         <v>43620.0</v>
@@ -20412,7 +20405,7 @@
         <v>47</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
@@ -20430,16 +20423,16 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B114" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="C114" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>512</v>
-      </c>
       <c r="D114" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>34</v>
@@ -20449,7 +20442,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K114" s="13">
         <v>43620.0</v>
@@ -20462,7 +20455,7 @@
         <v>47</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
@@ -20480,16 +20473,16 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C115" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B115" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="C115" s="10" t="s">
+      <c r="D115" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>515</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>34</v>
@@ -20499,7 +20492,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K115" s="13">
         <v>43620.0</v>
@@ -20512,7 +20505,7 @@
         <v>47</v>
       </c>
       <c r="O115" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
@@ -20530,16 +20523,16 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>517</v>
-      </c>
       <c r="D116" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>34</v>
@@ -20557,7 +20550,7 @@
         <v>21</v>
       </c>
       <c r="N116" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O116" s="10"/>
       <c r="P116" s="12"/>
@@ -20576,28 +20569,28 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B117" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="C117" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>520</v>
-      </c>
       <c r="D117" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K117" s="13">
         <v>43620.0</v>
@@ -20610,7 +20603,7 @@
         <v>47</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -20628,16 +20621,16 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C118" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="B118" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="C118" s="39" t="s">
-        <v>523</v>
-      </c>
       <c r="D118" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>34</v>
@@ -20647,7 +20640,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K118" s="13">
         <v>43620.0</v>
@@ -20660,7 +20653,7 @@
         <v>47</v>
       </c>
       <c r="O118" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
@@ -20678,16 +20671,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B119" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>525</v>
-      </c>
       <c r="D119" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>34</v>
@@ -20697,7 +20690,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K119" s="13">
         <v>43620.0</v>
@@ -20710,7 +20703,7 @@
         <v>47</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
@@ -20728,16 +20721,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="B120" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>527</v>
-      </c>
       <c r="D120" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>34</v>
@@ -20747,7 +20740,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K120" s="13">
         <v>43620.0</v>
@@ -20760,7 +20753,7 @@
         <v>47</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
@@ -20778,16 +20771,16 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C121" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="B121" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="C121" s="39" t="s">
-        <v>529</v>
-      </c>
       <c r="D121" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>34</v>
@@ -20797,7 +20790,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K121" s="13">
         <v>43620.0</v>
@@ -20810,7 +20803,7 @@
         <v>47</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
@@ -20828,16 +20821,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="C122" s="10" t="s">
+      <c r="D122" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>532</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>34</v>
@@ -20858,7 +20851,7 @@
         <v>30</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -20876,16 +20869,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B123" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="C123" s="10" t="s">
+      <c r="D123" s="10" t="s">
         <v>534</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>535</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>34</v>
@@ -20895,7 +20888,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K123" s="13">
         <v>43620.0</v>
@@ -20908,7 +20901,7 @@
         <v>47</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -20926,16 +20919,16 @@
     </row>
     <row r="124">
       <c r="A124" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="B124" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="B124" s="46" t="s">
+      <c r="C124" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="C124" s="45" t="s">
-        <v>538</v>
-      </c>
       <c r="D124" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>34</v>
@@ -20945,7 +20938,7 @@
       <c r="H124" s="41"/>
       <c r="I124" s="41"/>
       <c r="J124" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K124" s="42">
         <v>44139.0</v>
@@ -20958,7 +20951,7 @@
         <v>30</v>
       </c>
       <c r="O124" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P124" s="41"/>
       <c r="Q124" s="41"/>
@@ -20976,16 +20969,16 @@
     </row>
     <row r="125">
       <c r="A125" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="B125" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="C125" s="43" t="s">
         <v>541</v>
       </c>
-      <c r="C125" s="43" t="s">
+      <c r="D125" s="43" t="s">
         <v>542</v>
-      </c>
-      <c r="D125" s="43" t="s">
-        <v>543</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>34</v>
@@ -20995,7 +20988,7 @@
       <c r="H125" s="41"/>
       <c r="I125" s="41"/>
       <c r="J125" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K125" s="42">
         <v>44139.0</v>
@@ -21008,7 +21001,7 @@
         <v>66</v>
       </c>
       <c r="O125" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P125" s="41"/>
       <c r="Q125" s="41"/>
@@ -21026,16 +21019,16 @@
     </row>
     <row r="126">
       <c r="A126" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="B126" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="B126" s="46" t="s">
+      <c r="C126" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="C126" s="45" t="s">
+      <c r="D126" s="43" t="s">
         <v>547</v>
-      </c>
-      <c r="D126" s="43" t="s">
-        <v>548</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>34</v>
@@ -21045,7 +21038,7 @@
       <c r="H126" s="41"/>
       <c r="I126" s="41"/>
       <c r="J126" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K126" s="42">
         <v>44139.0</v>
@@ -21058,7 +21051,7 @@
         <v>66</v>
       </c>
       <c r="O126" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P126" s="41"/>
       <c r="Q126" s="41"/>
@@ -21076,16 +21069,16 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="C127" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="D127" s="10" t="s">
         <v>552</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>553</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>34</v>
@@ -21106,7 +21099,7 @@
         <v>30</v>
       </c>
       <c r="O127" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
@@ -21124,16 +21117,16 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="C128" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>556</v>
-      </c>
       <c r="D128" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>34</v>
@@ -21154,7 +21147,7 @@
         <v>30</v>
       </c>
       <c r="O128" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
@@ -21172,16 +21165,16 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="C129" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="B129" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>558</v>
-      </c>
       <c r="D129" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>34</v>
@@ -21191,7 +21184,7 @@
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
       <c r="J129" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K129" s="13">
         <v>43620.0</v>
@@ -21204,7 +21197,7 @@
         <v>47</v>
       </c>
       <c r="O129" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
@@ -21222,16 +21215,16 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="C130" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>561</v>
-      </c>
       <c r="D130" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>34</v>
@@ -21241,7 +21234,7 @@
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K130" s="13">
         <v>43620.0</v>
@@ -21254,7 +21247,7 @@
         <v>47</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P130" s="12"/>
       <c r="Q130" s="12"/>
@@ -21272,16 +21265,16 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="C131" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>564</v>
-      </c>
       <c r="D131" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>34</v>
@@ -21291,7 +21284,7 @@
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
       <c r="J131" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K131" s="13">
         <v>43620.0</v>
@@ -21304,7 +21297,7 @@
         <v>47</v>
       </c>
       <c r="O131" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P131" s="12"/>
       <c r="Q131" s="12"/>
@@ -21322,28 +21315,28 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="C132" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>567</v>
-      </c>
       <c r="D132" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
       <c r="J132" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K132" s="13">
         <v>43620.0</v>
@@ -21356,7 +21349,7 @@
         <v>47</v>
       </c>
       <c r="O132" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P132" s="12"/>
       <c r="Q132" s="12"/>
@@ -21374,16 +21367,16 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B133" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="C133" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>571</v>
-      </c>
       <c r="D133" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>34</v>
@@ -21393,7 +21386,7 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K133" s="13">
         <v>43620.0</v>
@@ -21406,7 +21399,7 @@
         <v>47</v>
       </c>
       <c r="O133" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
@@ -21424,16 +21417,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B134" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="C134" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>574</v>
-      </c>
       <c r="D134" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>34</v>
@@ -21443,7 +21436,7 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K134" s="13">
         <v>43620.0</v>
@@ -21456,7 +21449,7 @@
         <v>47</v>
       </c>
       <c r="O134" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
@@ -21474,16 +21467,16 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="B135" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>576</v>
-      </c>
       <c r="D135" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>34</v>
@@ -21493,7 +21486,7 @@
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
       <c r="J135" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K135" s="13">
         <v>43620.0</v>
@@ -21506,7 +21499,7 @@
         <v>47</v>
       </c>
       <c r="O135" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
@@ -21524,16 +21517,16 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C136" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="B136" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="C136" s="38" t="s">
-        <v>578</v>
-      </c>
       <c r="D136" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E136" s="10" t="s">
         <v>34</v>
@@ -21543,7 +21536,7 @@
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K136" s="13">
         <v>43620.0</v>
@@ -21556,7 +21549,7 @@
         <v>47</v>
       </c>
       <c r="O136" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
@@ -21574,16 +21567,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B137" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="C137" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C137" s="10" t="s">
-        <v>581</v>
-      </c>
       <c r="D137" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>34</v>
@@ -21593,7 +21586,7 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K137" s="13">
         <v>43620.0</v>
@@ -21606,7 +21599,7 @@
         <v>47</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
@@ -21624,28 +21617,28 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B138" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>583</v>
-      </c>
       <c r="D138" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E138" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K138" s="13">
         <v>43620.0</v>
@@ -21658,7 +21651,7 @@
         <v>47</v>
       </c>
       <c r="O138" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
@@ -21676,16 +21669,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="B139" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>586</v>
-      </c>
       <c r="D139" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>34</v>
@@ -21695,7 +21688,7 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K139" s="13">
         <v>43620.0</v>
@@ -21708,7 +21701,7 @@
         <v>47</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -21726,16 +21719,16 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B140" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="C140" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>589</v>
-      </c>
       <c r="D140" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E140" s="10" t="s">
         <v>34</v>
@@ -21745,7 +21738,7 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K140" s="13">
         <v>43620.0</v>
@@ -21758,7 +21751,7 @@
         <v>47</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P140" s="12"/>
       <c r="Q140" s="12"/>
@@ -21776,16 +21769,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B141" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>591</v>
-      </c>
       <c r="D141" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>34</v>
@@ -21795,7 +21788,7 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K141" s="13">
         <v>43620.0</v>
@@ -21808,7 +21801,7 @@
         <v>47</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
@@ -21826,16 +21819,16 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="B142" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>593</v>
-      </c>
       <c r="D142" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E142" s="10" t="s">
         <v>34</v>
@@ -21845,7 +21838,7 @@
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K142" s="13">
         <v>43620.0</v>
@@ -21858,7 +21851,7 @@
         <v>47</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -21876,16 +21869,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="B143" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="C143" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>596</v>
-      </c>
       <c r="D143" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>34</v>
@@ -21895,7 +21888,7 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K143" s="13">
         <v>43620.0</v>
@@ -21908,7 +21901,7 @@
         <v>47</v>
       </c>
       <c r="O143" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -21926,16 +21919,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="B144" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="C144" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>599</v>
-      </c>
       <c r="D144" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>34</v>
@@ -21945,7 +21938,7 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K144" s="13">
         <v>43620.0</v>
@@ -21958,7 +21951,7 @@
         <v>47</v>
       </c>
       <c r="O144" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
@@ -21976,16 +21969,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="C145" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>602</v>
-      </c>
       <c r="D145" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E145" s="10" t="s">
         <v>34</v>
@@ -21995,7 +21988,7 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K145" s="13">
         <v>43620.0</v>
@@ -22008,7 +22001,7 @@
         <v>47</v>
       </c>
       <c r="O145" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
@@ -22026,16 +22019,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="C146" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="D146" s="10" t="s">
         <v>605</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>34</v>
@@ -22068,16 +22061,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="C147" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>609</v>
-      </c>
       <c r="D147" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>34</v>
@@ -22110,16 +22103,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B148" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="C148" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>612</v>
-      </c>
       <c r="D148" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>34</v>
@@ -22129,7 +22122,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K148" s="13">
         <v>43620.0</v>
@@ -22142,7 +22135,7 @@
         <v>47</v>
       </c>
       <c r="O148" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -22160,16 +22153,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B149" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="C149" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="D149" s="10" t="s">
         <v>615</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>616</v>
       </c>
       <c r="E149" s="10" t="s">
         <v>34</v>
@@ -22190,7 +22183,7 @@
         <v>30</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -22208,28 +22201,28 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B150" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>618</v>
-      </c>
       <c r="D150" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E150" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K150" s="13">
         <v>43620.0</v>
@@ -22242,7 +22235,7 @@
         <v>47</v>
       </c>
       <c r="O150" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -22260,16 +22253,16 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B151" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="C151" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>622</v>
-      </c>
       <c r="D151" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>34</v>
@@ -22279,7 +22272,7 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K151" s="13">
         <v>43620.0</v>
@@ -22292,7 +22285,7 @@
         <v>47</v>
       </c>
       <c r="O151" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P151" s="12"/>
       <c r="Q151" s="12"/>
@@ -22310,16 +22303,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B152" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>624</v>
-      </c>
       <c r="D152" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E152" s="10" t="s">
         <v>34</v>
@@ -22329,7 +22322,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K152" s="13">
         <v>43620.0</v>
@@ -22342,7 +22335,7 @@
         <v>47</v>
       </c>
       <c r="O152" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
@@ -22360,16 +22353,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="C153" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B153" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>626</v>
-      </c>
       <c r="D153" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>34</v>
@@ -22379,7 +22372,7 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K153" s="13">
         <v>43620.0</v>
@@ -22392,7 +22385,7 @@
         <v>47</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -22410,16 +22403,16 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>628</v>
-      </c>
       <c r="D154" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>34</v>
@@ -22440,7 +22433,7 @@
         <v>30</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -22458,16 +22451,16 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="B155" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>630</v>
-      </c>
       <c r="D155" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E155" s="10" t="s">
         <v>34</v>
@@ -22477,7 +22470,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K155" s="13">
         <v>43620.0</v>
@@ -22490,7 +22483,7 @@
         <v>47</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -22508,16 +22501,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B156" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="C156" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>633</v>
-      </c>
       <c r="D156" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>34</v>
@@ -22527,7 +22520,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K156" s="13">
         <v>43620.0</v>
@@ -22540,7 +22533,7 @@
         <v>47</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -22558,16 +22551,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="C157" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="B157" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>635</v>
-      </c>
       <c r="D157" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>34</v>
@@ -22577,7 +22570,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K157" s="13">
         <v>43620.0</v>
@@ -22590,7 +22583,7 @@
         <v>47</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
@@ -22608,16 +22601,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="B158" s="16" t="s">
-        <v>636</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>637</v>
-      </c>
       <c r="D158" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E158" s="10" t="s">
         <v>34</v>
@@ -22627,7 +22620,7 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K158" s="13">
         <v>43620.0</v>
@@ -22640,7 +22633,7 @@
         <v>47</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -22658,16 +22651,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="B159" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="B159" s="16" t="s">
-        <v>638</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>639</v>
-      </c>
       <c r="D159" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>34</v>
@@ -22677,7 +22670,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K159" s="13">
         <v>43620.0</v>
@@ -22690,7 +22683,7 @@
         <v>47</v>
       </c>
       <c r="O159" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -22708,16 +22701,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B160" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="C160" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="C160" s="10" t="s">
-        <v>642</v>
-      </c>
       <c r="D160" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>34</v>
@@ -22727,7 +22720,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K160" s="13">
         <v>43620.0</v>
@@ -22740,7 +22733,7 @@
         <v>47</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -22758,16 +22751,16 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="B161" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="C161" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="C161" s="10" t="s">
-        <v>645</v>
-      </c>
       <c r="D161" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>34</v>
@@ -22777,7 +22770,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K161" s="13">
         <v>43795.0</v>
@@ -22787,10 +22780,10 @@
         <v>21</v>
       </c>
       <c r="N161" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="O161" s="14" t="s">
         <v>647</v>
-      </c>
-      <c r="O161" s="14" t="s">
-        <v>648</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -22808,16 +22801,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="B162" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="C162" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="C162" s="10" t="s">
-        <v>651</v>
-      </c>
       <c r="D162" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E162" s="10" t="s">
         <v>34</v>
@@ -22827,7 +22820,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K162" s="13">
         <v>43620.0</v>
@@ -22840,7 +22833,7 @@
         <v>47</v>
       </c>
       <c r="O162" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
@@ -22858,16 +22851,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B163" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="C163" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C163" s="10" t="s">
-        <v>654</v>
-      </c>
       <c r="D163" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>34</v>
@@ -22877,7 +22870,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
       <c r="J163" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K163" s="13">
         <v>43620.0</v>
@@ -22890,7 +22883,7 @@
         <v>47</v>
       </c>
       <c r="O163" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
@@ -22908,16 +22901,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="C164" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="B164" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="C164" s="39" t="s">
-        <v>656</v>
-      </c>
       <c r="D164" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E164" s="10" t="s">
         <v>34</v>
@@ -22927,7 +22920,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K164" s="13">
         <v>43620.0</v>
@@ -22940,7 +22933,7 @@
         <v>47</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -22958,16 +22951,16 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="B165" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="C165" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>659</v>
-      </c>
       <c r="D165" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E165" s="10" t="s">
         <v>34</v>
@@ -22977,7 +22970,7 @@
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K165" s="13">
         <v>43620.0</v>
@@ -22990,7 +22983,7 @@
         <v>47</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
@@ -23008,28 +23001,28 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B166" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="C166" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C166" s="39" t="s">
-        <v>662</v>
-      </c>
       <c r="D166" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F166" s="12"/>
       <c r="G166" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
       <c r="J166" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K166" s="13">
         <v>43620.0</v>
@@ -23042,7 +23035,7 @@
         <v>47</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -23060,16 +23053,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B167" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="C167" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="C167" s="10" t="s">
-        <v>666</v>
-      </c>
       <c r="D167" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E167" s="10" t="s">
         <v>34</v>
@@ -23090,7 +23083,7 @@
         <v>30</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23108,16 +23101,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B168" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="C168" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="C168" s="10" t="s">
-        <v>669</v>
-      </c>
       <c r="D168" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>34</v>
@@ -23127,7 +23120,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K168" s="13">
         <v>43620.0</v>
@@ -23140,7 +23133,7 @@
         <v>47</v>
       </c>
       <c r="O168" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
@@ -23158,16 +23151,16 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B169" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="C169" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="C169" s="10" t="s">
-        <v>672</v>
-      </c>
       <c r="D169" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E169" s="10" t="s">
         <v>34</v>
@@ -23177,7 +23170,7 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K169" s="13">
         <v>43620.0</v>
@@ -23190,7 +23183,7 @@
         <v>47</v>
       </c>
       <c r="O169" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
@@ -23208,16 +23201,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B170" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>674</v>
-      </c>
       <c r="D170" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E170" s="10" t="s">
         <v>34</v>
@@ -23227,7 +23220,7 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K170" s="13">
         <v>43620.0</v>
@@ -23240,7 +23233,7 @@
         <v>47</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -23258,16 +23251,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="C171" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B171" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>676</v>
-      </c>
       <c r="D171" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E171" s="10" t="s">
         <v>34</v>
@@ -23277,7 +23270,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K171" s="13">
         <v>43620.0</v>
@@ -23290,7 +23283,7 @@
         <v>47</v>
       </c>
       <c r="O171" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
@@ -23308,16 +23301,16 @@
     </row>
     <row r="172">
       <c r="A172" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B172" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="C172" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="C172" s="10" t="s">
-        <v>679</v>
-      </c>
       <c r="D172" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>34</v>
@@ -23327,7 +23320,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
       <c r="J172" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K172" s="13">
         <v>43620.0</v>
@@ -23340,7 +23333,7 @@
         <v>47</v>
       </c>
       <c r="O172" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -23358,16 +23351,16 @@
     </row>
     <row r="173">
       <c r="A173" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="B173" s="50" t="s">
+        <v>679</v>
+      </c>
+      <c r="C173" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="B173" s="50" t="s">
-        <v>680</v>
-      </c>
-      <c r="C173" s="38" t="s">
+      <c r="D173" s="10" t="s">
         <v>681</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>682</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>34</v>
@@ -23377,7 +23370,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
       <c r="J173" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K173" s="13">
         <v>43620.0</v>
@@ -23390,7 +23383,7 @@
         <v>47</v>
       </c>
       <c r="O173" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
@@ -23408,16 +23401,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="B174" s="32" t="s">
-        <v>683</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>684</v>
-      </c>
       <c r="D174" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>34</v>
@@ -23427,7 +23420,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
       <c r="J174" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K174" s="13">
         <v>43620.0</v>
@@ -23440,7 +23433,7 @@
         <v>47</v>
       </c>
       <c r="O174" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
@@ -23458,16 +23451,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B175" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B175" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>686</v>
-      </c>
       <c r="D175" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>34</v>
@@ -23477,7 +23470,7 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
       <c r="J175" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K175" s="13">
         <v>43620.0</v>
@@ -23490,7 +23483,7 @@
         <v>47</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -23508,16 +23501,16 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="B176" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="C176" s="10" t="s">
         <v>688</v>
       </c>
-      <c r="C176" s="10" t="s">
-        <v>689</v>
-      </c>
       <c r="D176" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>34</v>
@@ -23538,7 +23531,7 @@
         <v>30</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -23556,16 +23549,16 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B177" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="C177" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="D177" s="10" t="s">
         <v>692</v>
-      </c>
-      <c r="D177" s="10" t="s">
-        <v>693</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>34</v>
@@ -23575,7 +23568,7 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K177" s="13">
         <v>43795.0</v>
@@ -23585,10 +23578,10 @@
         <v>21</v>
       </c>
       <c r="N177" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="O177" s="14" t="s">
         <v>647</v>
-      </c>
-      <c r="O177" s="14" t="s">
-        <v>648</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -23606,28 +23599,28 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="C178" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="B178" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>696</v>
-      </c>
       <c r="D178" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
       <c r="J178" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K178" s="13">
         <v>43620.0</v>
@@ -23640,7 +23633,7 @@
         <v>47</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P178" s="12"/>
       <c r="Q178" s="12"/>
@@ -23658,16 +23651,16 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B179" s="25" t="s">
         <v>698</v>
       </c>
-      <c r="B179" s="25" t="s">
+      <c r="C179" s="51" t="s">
         <v>699</v>
       </c>
-      <c r="C179" s="51" t="s">
-        <v>700</v>
-      </c>
       <c r="D179" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>34</v>
@@ -23688,7 +23681,7 @@
         <v>66</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P179" s="52"/>
       <c r="Q179" s="52"/>
@@ -23706,16 +23699,16 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="C180" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="B180" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>702</v>
-      </c>
       <c r="D180" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>34</v>
@@ -23725,7 +23718,7 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
       <c r="J180" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K180" s="13">
         <v>43620.0</v>
@@ -23738,7 +23731,7 @@
         <v>47</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -23756,16 +23749,16 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="B181" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="C181" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="D181" s="10" t="s">
         <v>705</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>706</v>
       </c>
       <c r="E181" s="10" t="s">
         <v>34</v>
@@ -23786,7 +23779,7 @@
         <v>30</v>
       </c>
       <c r="O181" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -23804,16 +23797,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B182" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="C182" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="C182" s="10" t="s">
-        <v>709</v>
-      </c>
       <c r="D182" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E182" s="10" t="s">
         <v>34</v>
@@ -23834,7 +23827,7 @@
         <v>30</v>
       </c>
       <c r="O182" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P182" s="12"/>
       <c r="Q182" s="12"/>
@@ -23852,16 +23845,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="C183" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="B183" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>711</v>
-      </c>
       <c r="D183" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>34</v>
@@ -23882,7 +23875,7 @@
         <v>30</v>
       </c>
       <c r="O183" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -23900,16 +23893,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B184" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="C184" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="D184" s="10" t="s">
         <v>714</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>715</v>
       </c>
       <c r="E184" s="10" t="s">
         <v>34</v>
@@ -23930,7 +23923,7 @@
         <v>30</v>
       </c>
       <c r="O184" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -23948,16 +23941,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B185" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="C185" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="D185" s="10" t="s">
         <v>718</v>
-      </c>
-      <c r="D185" s="10" t="s">
-        <v>719</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>34</v>
@@ -23978,7 +23971,7 @@
         <v>30</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -23996,16 +23989,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B186" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="C186" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="C186" s="39" t="s">
-        <v>722</v>
-      </c>
       <c r="D186" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>34</v>
@@ -24015,7 +24008,7 @@
       <c r="H186" s="12"/>
       <c r="I186" s="23"/>
       <c r="J186" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K186" s="13">
         <v>43620.0</v>
@@ -24028,7 +24021,7 @@
         <v>47</v>
       </c>
       <c r="O186" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -24046,16 +24039,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="B187" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="C187" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="C187" s="10" t="s">
-        <v>725</v>
-      </c>
       <c r="D187" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>34</v>
@@ -24065,7 +24058,7 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
       <c r="J187" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K187" s="13">
         <v>43620.0</v>
@@ -24078,7 +24071,7 @@
         <v>47</v>
       </c>
       <c r="O187" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -24096,16 +24089,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="C188" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B188" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="D188" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>34</v>
@@ -24115,7 +24108,7 @@
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
       <c r="J188" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K188" s="13">
         <v>43620.0</v>
@@ -24128,7 +24121,7 @@
         <v>47</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24146,16 +24139,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B189" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="C189" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="C189" s="10" t="s">
-        <v>730</v>
-      </c>
       <c r="D189" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>34</v>
@@ -24176,7 +24169,7 @@
         <v>30</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -24194,16 +24187,16 @@
     </row>
     <row r="190">
       <c r="A190" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="B190" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="C190" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="C190" s="10" t="s">
-        <v>733</v>
-      </c>
       <c r="D190" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>34</v>
@@ -24213,7 +24206,7 @@
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
       <c r="J190" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K190" s="13">
         <v>43620.0</v>
@@ -24226,7 +24219,7 @@
         <v>47</v>
       </c>
       <c r="O190" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P190" s="12"/>
       <c r="Q190" s="12"/>
@@ -24247,7 +24240,7 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B192" s="51"/>
       <c r="C192" s="25"/>
@@ -24281,7 +24274,7 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B193" s="25"/>
       <c r="C193" s="53"/>
@@ -24315,7 +24308,7 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B194" s="53"/>
       <c r="C194" s="25"/>
@@ -24349,7 +24342,7 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B195" s="32"/>
       <c r="C195" s="12"/>
@@ -24383,7 +24376,7 @@
     </row>
     <row r="196">
       <c r="A196" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B196" s="32"/>
       <c r="C196" s="12"/>
@@ -24420,7 +24413,7 @@
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B198" s="32"/>
     </row>
@@ -24429,32 +24422,32 @@
     </row>
     <row r="200">
       <c r="A200" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B200" s="32"/>
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="C201" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="B201" s="16" t="s">
-        <v>741</v>
-      </c>
-      <c r="C201" s="10" t="s">
+      <c r="D201" s="10" t="s">
         <v>742</v>
       </c>
-      <c r="D201" s="10" t="s">
-        <v>515</v>
-      </c>
       <c r="E201" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K201" s="13">
         <v>43620.0</v>
@@ -24467,7 +24460,7 @@
         <v>47</v>
       </c>
       <c r="O201" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P201" s="12"/>
       <c r="Q201" s="12"/>
@@ -24485,26 +24478,26 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B202" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="B202" s="16" t="s">
+      <c r="C202" s="10" t="s">
         <v>745</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="D202" s="10" t="s">
         <v>746</v>
       </c>
-      <c r="D202" s="10" t="s">
-        <v>747</v>
-      </c>
       <c r="E202" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K202" s="13">
         <v>43620.0</v>
@@ -24517,7 +24510,7 @@
         <v>47</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
@@ -24535,26 +24528,26 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B203" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="C203" s="10" t="s">
         <v>749</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="D203" s="10" t="s">
         <v>750</v>
       </c>
-      <c r="D203" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="E203" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K203" s="13">
         <v>43620.0</v>
@@ -24567,7 +24560,7 @@
         <v>47</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -24594,17 +24587,17 @@
         <v>753</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>682</v>
+        <v>754</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K204" s="13">
         <v>43620.0</v>
@@ -24617,7 +24610,7 @@
         <v>47</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -24635,28 +24628,28 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>237</v>
+        <v>758</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F205" s="12"/>
       <c r="G205" s="12" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K205" s="13">
         <v>43620.0</v>
@@ -24669,7 +24662,7 @@
         <v>47</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
@@ -24687,19 +24680,19 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="D206" s="10" t="s">
         <v>758</v>
       </c>
-      <c r="B206" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="E206" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
@@ -24717,7 +24710,7 @@
         <v>30</v>
       </c>
       <c r="O206" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
@@ -24735,26 +24728,26 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
       <c r="J207" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K207" s="13">
         <v>43620.0</v>
@@ -24767,7 +24760,7 @@
         <v>47</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -24785,26 +24778,26 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>237</v>
+        <v>758</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
       <c r="J208" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K208" s="13">
         <v>43620.0</v>
@@ -24817,7 +24810,7 @@
         <v>47</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -24835,26 +24828,26 @@
     </row>
     <row r="209">
       <c r="A209" s="10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>682</v>
+        <v>754</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
       <c r="J209" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K209" s="13">
         <v>43620.0</v>
@@ -24867,7 +24860,7 @@
         <v>47</v>
       </c>
       <c r="O209" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P209" s="12"/>
       <c r="Q209" s="12"/>
@@ -24885,26 +24878,26 @@
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>199</v>
+        <v>750</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K210" s="13">
         <v>43620.0</v>
@@ -24917,7 +24910,7 @@
         <v>47</v>
       </c>
       <c r="O210" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
@@ -24935,19 +24928,19 @@
     </row>
     <row r="211">
       <c r="A211" s="10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
@@ -24965,7 +24958,7 @@
         <v>30</v>
       </c>
       <c r="O211" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P211" s="12"/>
       <c r="Q211" s="12"/>
@@ -27888,7 +27881,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -27906,30 +27899,30 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="13"/>
@@ -27939,77 +27932,77 @@
         <v>751</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="13"/>
